--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayGround\Luckdraw\test\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F84C565-BB67-40AC-9E39-B3001E66644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C27BAF-A0CC-40E6-9BEA-CAD78FB3360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1094,13 +1094,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C962041-207A-4F29-A01C-4C922CB429E3}" name="Table1" displayName="Table1" ref="A1:F102" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F102" xr:uid="{114FB2F8-257E-4B8A-9F8F-684AF50F831F}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F102" xr:uid="{114FB2F8-257E-4B8A-9F8F-684AF50F831F}"/>
   <tableColumns count="6">
     <tableColumn id="34" xr3:uid="{A0FE9764-8D7C-4D39-B906-D24C17FA8058}" name="mid" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{0A1C9DE8-D409-407C-A7CC-D8137F6F2A80}" name="uid" dataDxfId="4"/>
@@ -1437,20 +1431,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
@@ -1510,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
@@ -1530,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>107</v>
       </c>
@@ -1550,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
@@ -1570,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
@@ -1610,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
@@ -1650,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
@@ -1670,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -1690,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
@@ -1710,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
@@ -1730,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
@@ -1750,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -1770,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -1810,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>121</v>
       </c>
@@ -1830,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
@@ -1850,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>123</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>125</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>126</v>
       </c>
@@ -1930,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>127</v>
       </c>
@@ -1950,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>128</v>
       </c>
@@ -1970,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>129</v>
       </c>
@@ -1990,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
@@ -2010,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>131</v>
       </c>
@@ -2030,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>132</v>
       </c>
@@ -2050,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
@@ -2070,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>134</v>
       </c>
@@ -2090,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -2110,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>136</v>
       </c>
@@ -2130,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
@@ -2150,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>138</v>
       </c>
@@ -2170,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>139</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>140</v>
       </c>
@@ -2210,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
@@ -2230,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -2250,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
@@ -2290,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>145</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
@@ -2330,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>147</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
@@ -2370,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>149</v>
       </c>
@@ -2390,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>150</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>151</v>
       </c>
@@ -2430,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>152</v>
       </c>
@@ -2450,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>153</v>
       </c>
@@ -2470,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -2490,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -2510,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>156</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>157</v>
       </c>
@@ -2550,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
@@ -2590,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -2610,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>161</v>
       </c>
@@ -2630,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
@@ -2650,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>163</v>
       </c>
@@ -2670,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2690,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>165</v>
       </c>
@@ -2710,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>166</v>
       </c>
@@ -2730,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>167</v>
       </c>
@@ -2750,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -2770,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>169</v>
       </c>
@@ -2790,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>170</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>171</v>
       </c>
@@ -2830,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>172</v>
       </c>
@@ -2850,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>173</v>
       </c>
@@ -2870,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>174</v>
       </c>
@@ -2890,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>175</v>
       </c>
@@ -2910,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>176</v>
       </c>
@@ -2930,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>177</v>
       </c>
@@ -2950,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>178</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>179</v>
       </c>
@@ -2990,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>180</v>
       </c>
@@ -3010,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>181</v>
       </c>
@@ -3030,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>182</v>
       </c>
@@ -3050,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>183</v>
       </c>
@@ -3070,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
@@ -3090,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>185</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
@@ -3130,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>187</v>
       </c>
@@ -3150,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>188</v>
       </c>
@@ -3170,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>189</v>
       </c>
@@ -3190,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>190</v>
       </c>
@@ -3210,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>191</v>
       </c>
@@ -3230,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
@@ -3250,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>193</v>
       </c>
@@ -3270,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>194</v>
       </c>
@@ -3290,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>195</v>
       </c>
@@ -3310,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>196</v>
       </c>
@@ -3330,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>197</v>
       </c>
@@ -3350,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -3370,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
@@ -3390,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>200</v>
       </c>
@@ -3410,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>201</v>
       </c>
@@ -3430,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>202</v>
       </c>
@@ -3450,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>203</v>
       </c>
@@ -3470,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>204</v>
       </c>

--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayGround\Html-css-jquery\luckydraw_2023\luckydraw\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6316E51-E5C6-4ACD-B586-F55EB3067A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86F8FE-F972-4BF6-926A-FD88BE7D50EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10125" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -18,338 +18,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="316">
-  <si>
-    <t>T197734</t>
-  </si>
-  <si>
-    <t>T197510</t>
-  </si>
-  <si>
-    <t>T186265</t>
-  </si>
-  <si>
-    <t>T197557</t>
-  </si>
-  <si>
-    <t>T197739</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>active</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>043</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>045</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>078</t>
-  </si>
-  <si>
-    <t>079</t>
-  </si>
-  <si>
-    <t>080</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>083</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>088</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>091</t>
-  </si>
-  <si>
-    <t>092</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>094</t>
-  </si>
-  <si>
-    <t>095</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>097</t>
-  </si>
-  <si>
-    <t>098</t>
-  </si>
-  <si>
-    <t>099</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -611,36 +290,6 @@
     <t>231814</t>
   </si>
   <si>
-    <t>C23570</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -950,18 +599,6 @@
     <t>Tran Quang Thai</t>
   </si>
   <si>
-    <t>Pham Truong Quang Khoa</t>
-  </si>
-  <si>
-    <t>Tran Huu Chi Cong</t>
-  </si>
-  <si>
-    <t>Pham Anh Minh</t>
-  </si>
-  <si>
-    <t>Ly Gia Huy</t>
-  </si>
-  <si>
     <t>Column Labels</t>
   </si>
   <si>
@@ -972,6 +609,12 @@
   </si>
   <si>
     <t>Count of name</t>
+  </si>
+  <si>
+    <t>subteam</t>
+  </si>
+  <si>
+    <t>023570</t>
   </si>
 </sst>
 </file>
@@ -1016,12 +659,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,18 +671,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1065,6 +702,21 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,6 +959,86 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -1379,65 +1111,117 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1475,65 +1259,117 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$5:$C$13</c:f>
+              <c:f>Sheet2!$C$5:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -1571,62 +1407,117 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$5:$D$13</c:f>
+              <c:f>Sheet2!$D$5:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1664,50 +1555,102 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$5:$E$13</c:f>
+              <c:f>Sheet2!$E$5:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
+                <c:ptCount val="16"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1745,50 +1688,102 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$5:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$5:$A$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="16"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$5:$F$13</c:f>
+              <c:f>Sheet2!$F$5:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="16"/>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2714,11 +2709,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="dnnvu.menlo" refreshedDate="45287.371889351853" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="106" xr:uid="{A1B7942F-9942-4C8A-89A8-0B7B605C0AED}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="dnnvu.menlo" refreshedDate="45293.446821064812" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="106" xr:uid="{A1B7942F-9942-4C8A-89A8-0B7B605C0AED}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table13"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="mid" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -2726,114 +2721,7 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="186559" maxValue="980013"/>
     </cacheField>
     <cacheField name="name" numFmtId="0">
-      <sharedItems count="106">
-        <s v="Nguyen Van Duong"/>
-        <s v="Nguyen Nhat Bao"/>
-        <s v="Quach Thi My Linh"/>
-        <s v="Tran Dang Xuan"/>
-        <s v="Nguyen Nhat Linh"/>
-        <s v="Truong Minh Hoang"/>
-        <s v="Phan Van Hau"/>
-        <s v="Truong Quang Truong"/>
-        <s v="Hoang Nguyen Hoai Nam"/>
-        <s v="Phan Tan Thai Duong"/>
-        <s v="Pham Ba Phuc"/>
-        <s v="Truong Anh Hao"/>
-        <s v="Dang Minh Thien"/>
-        <s v="Nguyen Minh Quang"/>
-        <s v="Mai Thanh Man"/>
-        <s v="Pham Thanh Tu"/>
-        <s v="Le Thi Ngoc Xuan"/>
-        <s v="Nguyen Thi Huyen Trang"/>
-        <s v="Vu Xuan Thang"/>
-        <s v="Tran Thi Ngoc Minh"/>
-        <s v="Hoang Huu Dat"/>
-        <s v="Nguyen Huu Trong"/>
-        <s v="Hoang Gia Vuong"/>
-        <s v="Kieu Van Tien"/>
-        <s v="Truong Minh Dong"/>
-        <s v="Thai Hoang Dang"/>
-        <s v="Vo Tuan Kiet"/>
-        <s v="Tran Doan Tung"/>
-        <s v="Phan Thanh Hau"/>
-        <s v="Nguyen Doan Thien Thuong"/>
-        <s v="Thong A Thao"/>
-        <s v="Nguyen Thanh Hoai"/>
-        <s v="Dang Vinh Truong"/>
-        <s v="Nguyen Viet Bac"/>
-        <s v="Nguyen The Anh"/>
-        <s v="Tran Huynh Toi"/>
-        <s v="Bui Xuan Truong"/>
-        <s v="Nguyen Thi Thu Huong"/>
-        <s v="Tran Xuan Binh"/>
-        <s v="Huynh Dai Nghia"/>
-        <s v="Huynh Pham Nhat Trieu"/>
-        <s v="Nguyen Ngoc Lam"/>
-        <s v="Nguyen Thanh Tung"/>
-        <s v="Truong Ngoc Nhat"/>
-        <s v="Huynh Hieu Nghia"/>
-        <s v="Vo Quang Nhan"/>
-        <s v="On Quan An"/>
-        <s v="Tra Anh Toan"/>
-        <s v="Tran Phuc Nguyen"/>
-        <s v="Phan Dinh Khang"/>
-        <s v="Bui Huynh Hao Thien"/>
-        <s v="Trinh Van Hoang"/>
-        <s v="Dang Huynh Song Thao"/>
-        <s v="Do Thi Bich Tram"/>
-        <s v="Phan Ly Nhung"/>
-        <s v="Trinh Thi Minh"/>
-        <s v="Nguyen Duy Kha"/>
-        <s v="Nguyen Gia Bao"/>
-        <s v="Bui Ngoc Bao Tram"/>
-        <s v="Duong Nam"/>
-        <s v="Lam Chi Hien"/>
-        <s v="Tu Vuong Bao Ngoc"/>
-        <s v="Le Khac Hoan Vu"/>
-        <s v="Le Viet Hoang"/>
-        <s v="Vu Dinh Cao"/>
-        <s v="Dang Hoang Trong"/>
-        <s v="Nguyen Van Thinh"/>
-        <s v="Pham Xuan Quang"/>
-        <s v="Dinh Anh Trung"/>
-        <s v="Dang Van Anh Nguyen"/>
-        <s v="Do Dieu Trinh"/>
-        <s v="Huynh Van Hau"/>
-        <s v="Tran Minh Thien"/>
-        <s v="Dang Thai Hien"/>
-        <s v="Vo Kim Thach"/>
-        <s v="Nguyen Quang Thang"/>
-        <s v="Nguyen Phan Thien Long"/>
-        <s v="Le Minh Tuan"/>
-        <s v="Nguyen Gia Huy"/>
-        <s v="Vo Binh An"/>
-        <s v="Vo Thi Kim Ngan"/>
-        <s v="Nguyen Van Hop"/>
-        <s v="Nguyen Quang Chien"/>
-        <s v="Mai Duong Quyen"/>
-        <s v="Nguyen Duy Dang"/>
-        <s v="Phan Le Thanh Tung"/>
-        <s v="Nguyen Tuan Khanh"/>
-        <s v="Pham Thanh Hai"/>
-        <s v="Thai Tan Xuyen"/>
-        <s v="Dang Tran Tuan"/>
-        <s v="Dang Ngan Nhat Phuong"/>
-        <s v="Mai Hong Thuc"/>
-        <s v="Tran Quang Thai"/>
-        <s v="Dang Nguyen Nguyen Vu"/>
-        <s v="Do Quang Vinh"/>
-        <s v="Hoang Quoc Vu"/>
-        <s v="Tran Gia Huan"/>
-        <s v="Pham Truong Quang Khoa"/>
-        <s v="Tran Huu Chi Cong"/>
-        <s v="Pham Anh Minh"/>
-        <s v="Ly Gia Huy"/>
-        <s v="Thai Pham Van Hiep"/>
-        <s v="Truong Hoang Linh"/>
-        <s v="Do Duy Tan"/>
-        <s v="Dang Minh Nhat"/>
-        <s v="Nguyen Minh Cam"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="team" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="8">
@@ -2845,6 +2733,13 @@
         <n v="6"/>
         <n v="7"/>
         <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="subteam" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
       </sharedItems>
     </cacheField>
     <cacheField name="priority" numFmtId="0">
@@ -2873,6 +2768,7 @@
   <r>
     <s v="029"/>
     <s v="208028"/>
+    <s v="Nguyen Van Duong"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -2881,7 +2777,8 @@
   <r>
     <s v="043"/>
     <s v="219328"/>
-    <x v="1"/>
+    <s v="Nguyen Nhat Bao"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
@@ -2889,7 +2786,8 @@
   <r>
     <s v="013"/>
     <s v="175487"/>
-    <x v="2"/>
+    <s v="Quach Thi My Linh"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
@@ -2897,7 +2795,8 @@
   <r>
     <s v="023"/>
     <s v="197104"/>
-    <x v="3"/>
+    <s v="Tran Dang Xuan"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
@@ -2905,7 +2804,8 @@
   <r>
     <s v="091"/>
     <s v="T197739"/>
-    <x v="4"/>
+    <s v="Nguyen Nhat Linh"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
@@ -2913,183 +2813,206 @@
   <r>
     <s v="040"/>
     <s v="218994"/>
-    <x v="5"/>
-    <x v="1"/>
+    <s v="Truong Minh Hoang"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="042"/>
     <s v="219235"/>
-    <x v="6"/>
-    <x v="1"/>
+    <s v="Phan Van Hau"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="045"/>
     <s v="219361"/>
-    <x v="7"/>
-    <x v="1"/>
+    <s v="Truong Quang Truong"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="016"/>
     <s v="T186265"/>
-    <x v="8"/>
+    <s v="Hoang Nguyen Hoai Nam"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="024"/>
     <s v="197134"/>
-    <x v="9"/>
+    <s v="Phan Tan Thai Duong"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="026"/>
     <s v="T197557"/>
-    <x v="10"/>
+    <s v="Pham Ba Phuc"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="036"/>
     <s v="218734"/>
-    <x v="11"/>
+    <s v="Truong Anh Hao"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="021"/>
     <s v="186906"/>
-    <x v="12"/>
+    <s v="Dang Minh Thien"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="028"/>
     <s v="207855"/>
-    <x v="13"/>
+    <s v="Nguyen Minh Quang"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="032"/>
     <s v="208059"/>
-    <x v="14"/>
+    <s v="Mai Thanh Man"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="037"/>
     <s v="218735"/>
-    <x v="15"/>
+    <s v="Pham Thanh Tu"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="044"/>
     <s v="219353"/>
-    <x v="16"/>
+    <s v="Le Thi Ngoc Xuan"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="020"/>
     <s v="186878"/>
-    <x v="17"/>
+    <s v="Nguyen Thi Huyen Trang"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="031"/>
     <s v="208036"/>
-    <x v="18"/>
+    <s v="Vu Xuan Thang"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="035"/>
     <s v="218689"/>
-    <x v="19"/>
+    <s v="Tran Thi Ngoc Minh"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="025"/>
     <s v="T197510"/>
-    <x v="20"/>
+    <s v="Hoang Huu Dat"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="027"/>
     <s v="T197734"/>
-    <x v="21"/>
+    <s v="Nguyen Huu Trong"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="041"/>
     <s v="219208"/>
-    <x v="22"/>
+    <s v="Hoang Gia Vuong"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="017"/>
     <s v="186489"/>
-    <x v="23"/>
+    <s v="Kieu Van Tien"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="018"/>
     <s v="186755"/>
-    <x v="24"/>
+    <s v="Truong Minh Dong"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="034"/>
     <s v="208154"/>
-    <x v="25"/>
+    <s v="Thai Hoang Dang"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="090"/>
     <n v="186824"/>
-    <x v="26"/>
+    <s v="Vo Tuan Kiet"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="1"/>
   </r>
   <r>
     <s v="071"/>
     <s v="229989"/>
-    <x v="27"/>
+    <s v="Tran Doan Tung"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3097,7 +3020,8 @@
   <r>
     <s v="096"/>
     <n v="220175"/>
-    <x v="28"/>
+    <s v="Phan Thanh Hau"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3105,7 +3029,8 @@
   <r>
     <s v="054"/>
     <s v="220430"/>
-    <x v="29"/>
+    <s v="Nguyen Doan Thien Thuong"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3113,7 +3038,8 @@
   <r>
     <s v="058"/>
     <s v="220782"/>
-    <x v="30"/>
+    <s v="Thong A Thao"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3121,7 +3047,8 @@
   <r>
     <s v="097"/>
     <n v="220980"/>
-    <x v="31"/>
+    <s v="Nguyen Thanh Hoai"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3129,7 +3056,8 @@
   <r>
     <s v="064"/>
     <s v="221248"/>
-    <x v="32"/>
+    <s v="Dang Vinh Truong"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3137,7 +3065,8 @@
   <r>
     <s v="067"/>
     <s v="221324"/>
-    <x v="33"/>
+    <s v="Nguyen Viet Bac"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3145,7 +3074,8 @@
   <r>
     <s v="081"/>
     <s v="231777"/>
-    <x v="34"/>
+    <s v="Nguyen The Anh"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3153,7 +3083,8 @@
   <r>
     <s v="015"/>
     <s v="186110"/>
-    <x v="35"/>
+    <s v="Tran Huynh Toi"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
@@ -3161,415 +3092,467 @@
   <r>
     <s v="055"/>
     <s v="220533"/>
-    <x v="36"/>
-    <x v="1"/>
+    <s v="Bui Xuan Truong"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="011"/>
     <s v="154361"/>
-    <x v="37"/>
-    <x v="1"/>
+    <s v="Nguyen Thi Thu Huong"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="102"/>
     <n v="208158"/>
-    <x v="38"/>
-    <x v="1"/>
+    <s v="Tran Xuan Binh"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <m/>
   </r>
   <r>
     <s v="038"/>
     <s v="218743"/>
-    <x v="39"/>
-    <x v="1"/>
+    <s v="Huynh Dai Nghia"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="069"/>
     <s v="229971"/>
-    <x v="40"/>
+    <s v="Huynh Pham Nhat Trieu"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="059"/>
     <s v="220874"/>
-    <x v="41"/>
+    <s v="Nguyen Ngoc Lam"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="003"/>
     <s v="101891"/>
-    <x v="42"/>
+    <s v="Nguyen Thanh Tung"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="012"/>
     <s v="154381"/>
-    <x v="43"/>
+    <s v="Truong Ngoc Nhat"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="093"/>
     <n v="197299"/>
-    <x v="44"/>
+    <s v="Huynh Hieu Nghia"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="094"/>
     <n v="208351"/>
-    <x v="45"/>
+    <s v="Vo Quang Nhan"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="047"/>
     <s v="220067"/>
-    <x v="46"/>
+    <s v="On Quan An"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="050"/>
     <s v="220161"/>
-    <x v="47"/>
+    <s v="Tra Anh Toan"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="051"/>
     <s v="220170"/>
-    <x v="48"/>
+    <s v="Tran Phuc Nguyen"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="033"/>
     <s v="208088"/>
-    <x v="49"/>
+    <s v="Phan Dinh Khang"/>
     <x v="3"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="049"/>
     <s v="220144"/>
-    <x v="50"/>
+    <s v="Bui Huynh Hao Thien"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="052"/>
     <s v="220297"/>
-    <x v="51"/>
+    <s v="Trinh Van Hoang"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="057"/>
     <s v="220626"/>
-    <x v="52"/>
+    <s v="Dang Huynh Song Thao"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="061"/>
     <s v="220936"/>
-    <x v="53"/>
+    <s v="Do Thi Bich Tram"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="065"/>
     <s v="221254"/>
-    <x v="54"/>
+    <s v="Phan Ly Nhung"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="092"/>
     <n v="186745"/>
-    <x v="55"/>
+    <s v="Trinh Thi Minh"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="046"/>
     <s v="220060"/>
-    <x v="56"/>
+    <s v="Nguyen Duy Kha"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="053"/>
     <s v="220426"/>
-    <x v="57"/>
+    <s v="Nguyen Gia Bao"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="063"/>
     <s v="221197"/>
-    <x v="58"/>
+    <s v="Bui Ngoc Bao Tram"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="078"/>
     <s v="231708"/>
-    <x v="59"/>
+    <s v="Duong Nam"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="082"/>
     <s v="231778"/>
-    <x v="60"/>
+    <s v="Lam Chi Hien"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="030"/>
     <s v="208030"/>
-    <x v="61"/>
+    <s v="Tu Vuong Bao Ngoc"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="085"/>
     <s v="231796"/>
-    <x v="62"/>
+    <s v="Le Khac Hoan Vu"/>
     <x v="5"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="070"/>
     <s v="229973"/>
-    <x v="63"/>
+    <s v="Le Viet Hoang"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="056"/>
     <s v="220616"/>
-    <x v="64"/>
+    <s v="Vu Dinh Cao"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="095"/>
     <n v="220986"/>
-    <x v="65"/>
+    <s v="Dang Hoang Trong"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="075"/>
     <s v="231644"/>
-    <x v="66"/>
+    <s v="Nguyen Van Thinh"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="076"/>
     <s v="231676"/>
-    <x v="67"/>
+    <s v="Pham Xuan Quang"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="079"/>
     <s v="231714"/>
-    <x v="68"/>
+    <s v="Dinh Anh Trung"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="089"/>
     <s v="C23570"/>
-    <x v="69"/>
+    <s v="Dang Van Anh Nguyen"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="088"/>
     <s v="231814"/>
-    <x v="70"/>
+    <s v="Do Dieu Trinh"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="039"/>
     <s v="218785"/>
-    <x v="71"/>
+    <s v="Huynh Van Hau"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="048"/>
     <s v="220097"/>
-    <x v="72"/>
+    <s v="Tran Minh Thien"/>
     <x v="6"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="060"/>
     <s v="220888"/>
-    <x v="73"/>
+    <s v="Dang Thai Hien"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="062"/>
     <s v="220950"/>
-    <x v="74"/>
+    <s v="Vo Kim Thach"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="066"/>
     <s v="221323"/>
-    <x v="75"/>
+    <s v="Nguyen Quang Thang"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="068"/>
     <s v="221357"/>
-    <x v="76"/>
+    <s v="Nguyen Phan Thien Long"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="072"/>
     <s v="231582"/>
-    <x v="77"/>
+    <s v="Le Minh Tuan"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="073"/>
     <s v="231636"/>
-    <x v="78"/>
+    <s v="Nguyen Gia Huy"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="074"/>
     <s v="231643"/>
-    <x v="79"/>
+    <s v="Vo Binh An"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="080"/>
     <s v="231767"/>
-    <x v="80"/>
+    <s v="Vo Thi Kim Ngan"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="083"/>
     <s v="231779"/>
-    <x v="81"/>
+    <s v="Nguyen Van Hop"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="084"/>
     <s v="231784"/>
-    <x v="82"/>
+    <s v="Nguyen Quang Chien"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="086"/>
     <s v="231803"/>
-    <x v="83"/>
+    <s v="Mai Duong Quyen"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="087"/>
     <s v="231806"/>
-    <x v="84"/>
+    <s v="Nguyen Duy Dang"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
     <s v="022"/>
     <s v="196998"/>
-    <x v="85"/>
-    <x v="0"/>
+    <s v="Phan Le Thanh Tung"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="098"/>
     <n v="231801"/>
-    <x v="86"/>
-    <x v="0"/>
+    <s v="Nguyen Tuan Khanh"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="019"/>
     <s v="186761"/>
-    <x v="87"/>
+    <s v="Pham Thanh Hai"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <n v="1"/>
@@ -3577,144 +3560,162 @@
   <r>
     <s v="006"/>
     <s v="112560"/>
-    <x v="88"/>
+    <s v="Thai Tan Xuyen"/>
     <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="005"/>
     <s v="101939"/>
-    <x v="89"/>
+    <s v="Dang Tran Tuan"/>
     <x v="2"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="008"/>
     <s v="133518"/>
-    <x v="90"/>
+    <s v="Dang Ngan Nhat Phuong"/>
     <x v="3"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="009"/>
     <s v="143963"/>
-    <x v="91"/>
+    <s v="Mai Hong Thuc"/>
     <x v="4"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="014"/>
     <s v="175563"/>
-    <x v="92"/>
+    <s v="Tran Quang Thai"/>
     <x v="4"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="010"/>
     <s v="154176"/>
-    <x v="93"/>
+    <s v="Dang Nguyen Nguyen Vu"/>
     <x v="5"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <s v="077"/>
     <s v="231681"/>
-    <x v="94"/>
+    <s v="Do Quang Vinh"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="007"/>
+    <s v="133216"/>
+    <s v="Hoang Quoc Vu"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="002"/>
+    <s v="091815"/>
+    <s v="Tran Gia Huan"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="103"/>
+    <s v="C1"/>
+    <s v="Pham Truong Quang Khoa"/>
     <x v="6"/>
     <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="007"/>
-    <s v="133216"/>
-    <x v="95"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="002"/>
-    <s v="091815"/>
-    <x v="96"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="103"/>
-    <s v="C1"/>
-    <x v="97"/>
-    <x v="6"/>
     <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <s v="104"/>
     <s v="C2"/>
-    <x v="98"/>
+    <s v="Tran Huu Chi Cong"/>
     <x v="6"/>
+    <x v="2"/>
     <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <s v="105"/>
     <s v="C3"/>
-    <x v="99"/>
+    <s v="Pham Anh Minh"/>
     <x v="6"/>
+    <x v="2"/>
     <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <s v="106"/>
     <s v="C4"/>
-    <x v="100"/>
+    <s v="Ly Gia Huy"/>
     <x v="6"/>
+    <x v="2"/>
     <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <s v="100"/>
     <n v="980013"/>
-    <x v="101"/>
-    <x v="0"/>
+    <s v="Thai Pham Van Hiep"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <s v="001"/>
     <s v="081573"/>
-    <x v="102"/>
-    <x v="0"/>
+    <s v="Truong Hoang Linh"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <s v="099"/>
     <n v="221296"/>
-    <x v="103"/>
-    <x v="0"/>
+    <s v="Do Duy Tan"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <s v="004"/>
     <s v="101909"/>
-    <x v="104"/>
+    <s v="Dang Minh Nhat"/>
     <x v="2"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <s v="101"/>
     <n v="186559"/>
-    <x v="105"/>
+    <s v="Nguyen Minh Cam"/>
     <x v="7"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="1"/>
   </r>
@@ -3722,122 +3723,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F07F6369-4D87-474E-9FE8-78369F5B59AB}" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F07F6369-4D87-474E-9FE8-78369F5B59AB}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="107">
-        <item x="50"/>
-        <item x="58"/>
-        <item x="36"/>
-        <item x="65"/>
-        <item x="52"/>
-        <item x="104"/>
-        <item x="12"/>
-        <item x="90"/>
-        <item x="93"/>
-        <item x="73"/>
-        <item x="89"/>
-        <item x="69"/>
-        <item x="32"/>
-        <item x="68"/>
-        <item x="70"/>
-        <item x="103"/>
-        <item x="94"/>
-        <item x="53"/>
-        <item x="59"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="8"/>
-        <item x="95"/>
-        <item x="39"/>
-        <item x="44"/>
-        <item x="40"/>
-        <item x="71"/>
-        <item x="23"/>
-        <item x="60"/>
-        <item x="62"/>
-        <item x="77"/>
-        <item x="16"/>
-        <item x="63"/>
-        <item x="100"/>
-        <item x="83"/>
-        <item x="91"/>
-        <item x="14"/>
-        <item x="29"/>
-        <item x="84"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="78"/>
-        <item x="21"/>
-        <item x="105"/>
-        <item x="13"/>
-        <item x="41"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="76"/>
-        <item x="82"/>
-        <item x="75"/>
-        <item x="31"/>
-        <item x="42"/>
-        <item x="34"/>
-        <item x="17"/>
-        <item x="37"/>
-        <item x="86"/>
-        <item x="0"/>
-        <item x="81"/>
-        <item x="66"/>
-        <item x="33"/>
-        <item x="46"/>
-        <item x="99"/>
-        <item x="10"/>
-        <item x="87"/>
-        <item x="15"/>
-        <item x="97"/>
-        <item x="67"/>
-        <item x="49"/>
-        <item x="85"/>
-        <item x="54"/>
-        <item x="9"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="25"/>
-        <item x="101"/>
-        <item x="88"/>
-        <item x="30"/>
-        <item x="47"/>
-        <item x="3"/>
-        <item x="27"/>
-        <item x="96"/>
-        <item x="98"/>
-        <item x="35"/>
-        <item x="72"/>
-        <item x="48"/>
-        <item x="92"/>
-        <item x="19"/>
-        <item x="38"/>
-        <item x="55"/>
-        <item x="51"/>
-        <item x="11"/>
-        <item x="102"/>
-        <item x="24"/>
-        <item x="5"/>
-        <item x="43"/>
-        <item x="7"/>
-        <item x="61"/>
-        <item x="79"/>
-        <item x="74"/>
-        <item x="45"/>
-        <item x="80"/>
-        <item x="26"/>
-        <item x="64"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
         <item x="0"/>
@@ -3848,6 +3739,14 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3863,40 +3762,89 @@
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="3"/>
+    <field x="4"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="6"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i>
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="4"/>
+    <field x="5"/>
   </colFields>
   <colItems count="6">
     <i>
@@ -4024,7 +3972,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -4036,7 +3984,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -4048,7 +3996,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -4060,7 +4008,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -4072,7 +4020,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
@@ -4092,19 +4040,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94B01B55-908F-407E-A0F5-1EADA3A17688}" name="Table13" displayName="Table13" ref="A1:F107" totalsRowShown="0">
-  <autoFilter ref="A1:F107" xr:uid="{28E80E7D-EF45-41A0-A381-C2279AEF5075}"/>
-  <sortState ref="A2:F107">
-    <sortCondition ref="E2:E107"/>
-    <sortCondition ref="D2:D107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94B01B55-908F-407E-A0F5-1EADA3A17688}" name="Table13" displayName="Table13" ref="A1:F103" totalsRowShown="0">
+  <autoFilter ref="A1:F103" xr:uid="{28E80E7D-EF45-41A0-A381-C2279AEF5075}"/>
+  <sortState ref="A2:F103">
+    <sortCondition ref="E2:E103"/>
+    <sortCondition ref="C2:C103"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="34" xr3:uid="{025329CF-47C6-4E82-B2E3-8CCC030804D2}" name="mid"/>
-    <tableColumn id="2" xr3:uid="{D2B7E7FC-8898-43B6-9761-E81C5904222F}" name="uid" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D2B7E7FC-8898-43B6-9761-E81C5904222F}" name="uid" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{5B8EB6B7-393C-4355-8711-8219B5CC46C9}" name="name"/>
-    <tableColumn id="11" xr3:uid="{CB2F8C7B-2C0A-4774-9E28-E17766758A74}" name="team"/>
-    <tableColumn id="32" xr3:uid="{8B0D9FC7-1905-421E-8188-320606DF2A9E}" name="priority"/>
-    <tableColumn id="1" xr3:uid="{44634F0A-1E47-4253-9970-A8B1815E6914}" name="active" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{CB2F8C7B-2C0A-4774-9E28-E17766758A74}" name="team" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{1A828B29-F081-4BAD-9A4D-3439B11C94E3}" name="subteam" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{8B0D9FC7-1905-421E-8188-320606DF2A9E}" name="priority" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{44634F0A-1E47-4253-9970-A8B1815E6914}" name="active" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4431,2166 +4379,1917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4714BE-5015-4D45-92D9-EFF28A4D2C9F}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="29" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>197739</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>186265</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>197557</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>197510</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>197734</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>186824</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>220175</v>
+      </c>
+      <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>220980</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>208158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>197299</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>208351</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>186745</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>220986</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="1">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="1">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="1">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="1">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" s="1">
+        <v>8</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="1">
+        <v>8</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>231801</v>
+      </c>
+      <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
         <v>149</v>
       </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="1">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
         <v>146</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10">
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>980013</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>221296</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="1">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17">
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18">
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>186559</v>
+      </c>
+      <c r="B103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="1">
+        <v>8</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="7">
-        <v>186824</v>
-      </c>
-      <c r="C28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="7">
-        <v>220175</v>
-      </c>
-      <c r="C30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="7">
-        <v>220980</v>
-      </c>
-      <c r="C33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>270</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="7">
-        <v>208158</v>
-      </c>
-      <c r="C40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" t="s">
-        <v>293</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="7">
-        <v>197299</v>
-      </c>
-      <c r="C46" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="7">
-        <v>208351</v>
-      </c>
-      <c r="C47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" t="s">
-        <v>237</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="7">
-        <v>186745</v>
-      </c>
-      <c r="C57" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59">
-        <v>6</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>287</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" t="s">
-        <v>296</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65">
-        <v>7</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" t="s">
-        <v>232</v>
-      </c>
-      <c r="D66">
-        <v>7</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B67" s="7">
-        <v>220986</v>
-      </c>
-      <c r="C67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" t="s">
-        <v>250</v>
-      </c>
-      <c r="D68">
-        <v>7</v>
-      </c>
-      <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" t="s">
-        <v>251</v>
-      </c>
-      <c r="D69">
-        <v>7</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" t="s">
-        <v>253</v>
-      </c>
-      <c r="D70">
-        <v>7</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71">
-        <v>7</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" t="s">
-        <v>262</v>
-      </c>
-      <c r="D72">
-        <v>7</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" t="s">
-        <v>294</v>
-      </c>
-      <c r="D73">
-        <v>7</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
-      </c>
-      <c r="F73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74">
-        <v>7</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76">
-        <v>8</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77">
-        <v>8</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78">
-        <v>8</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" t="s">
-        <v>247</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" t="s">
-        <v>249</v>
-      </c>
-      <c r="D81">
-        <v>8</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" t="s">
-        <v>255</v>
-      </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" t="s">
-        <v>258</v>
-      </c>
-      <c r="D83">
-        <v>8</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C84" t="s">
-        <v>259</v>
-      </c>
-      <c r="D84">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" t="s">
-        <v>260</v>
-      </c>
-      <c r="D85">
-        <v>8</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86">
-        <v>8</v>
-      </c>
-      <c r="E86">
-        <v>2</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" t="s">
-        <v>268</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="7">
-        <v>231801</v>
-      </c>
-      <c r="C88" t="s">
-        <v>305</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" t="s">
-        <v>302</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" t="s">
-        <v>300</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" t="s">
-        <v>306</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" t="s">
-        <v>265</v>
-      </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" t="s">
-        <v>307</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" t="s">
-        <v>267</v>
-      </c>
-      <c r="D95">
-        <v>6</v>
-      </c>
-      <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" t="s">
-        <v>264</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>4</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" t="s">
-        <v>263</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" t="s">
-        <v>308</v>
-      </c>
-      <c r="D99">
-        <v>7</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>198</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100">
-        <v>7</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102">
-        <v>7</v>
-      </c>
-      <c r="E102">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="7">
-        <v>980013</v>
-      </c>
-      <c r="C103" t="s">
-        <v>298</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>5</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" t="s">
-        <v>299</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>5</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="7">
-        <v>221296</v>
-      </c>
-      <c r="C105" t="s">
-        <v>303</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>5</v>
-      </c>
-      <c r="F105" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" t="s">
-        <v>297</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="E106">
-        <v>5</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="7">
-        <v>186559</v>
-      </c>
-      <c r="C107" t="s">
-        <v>301</v>
-      </c>
-      <c r="D107">
-        <v>8</v>
-      </c>
-      <c r="E107">
-        <v>5</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="F103" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B108:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="A104:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A2:A103">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6602,10 +6301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02713F3-EED7-4DF4-AEFA-F0102BF52B29}">
-  <dimension ref="A3:G13"/>
+  <dimension ref="A3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL27" sqref="AL27"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6615,10 +6314,12 @@
     <col min="3" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -6711,16 +6412,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>312</v>
+      <c r="A3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>314</v>
+      <c r="A4" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6738,191 +6439,459 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>12</v>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>20</v>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>12</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C29" s="3">
         <v>58</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D29" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E29" s="3">
         <v>6</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F29" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G29" s="3">
         <v>106</v>
       </c>
     </row>

--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayGround\Html-css-jquery\luckydraw_2023\luckydraw\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Playground\luckydraw\luckydraw\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86F8FE-F972-4BF6-926A-FD88BE7D50EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307D5AA-4801-4358-A168-695E31912AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="615" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -293,312 +303,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Hoang Huu Dat</t>
-  </si>
-  <si>
-    <t>Nguyen Huu Trong</t>
-  </si>
-  <si>
-    <t>Nguyen Van Duong</t>
-  </si>
-  <si>
-    <t>Thai Hoang Dang</t>
-  </si>
-  <si>
-    <t>Tran Thi Ngoc Minh</t>
-  </si>
-  <si>
-    <t>Truong Anh Hao</t>
-  </si>
-  <si>
-    <t>Pham Thanh Tu</t>
-  </si>
-  <si>
-    <t>Truong Minh Hoang</t>
-  </si>
-  <si>
-    <t>Hoang Gia Vuong</t>
-  </si>
-  <si>
-    <t>Phan Van Hau</t>
-  </si>
-  <si>
-    <t>Nguyen Nhat Bao</t>
-  </si>
-  <si>
-    <t>Le Thi Ngoc Xuan</t>
-  </si>
-  <si>
-    <t>Truong Quang Truong</t>
-  </si>
-  <si>
-    <t>Huynh Pham Nhat Trieu</t>
-  </si>
-  <si>
-    <t>Le Viet Hoang</t>
-  </si>
-  <si>
-    <t>Tran Doan Tung</t>
-  </si>
-  <si>
-    <t>Nguyen Duy Kha</t>
-  </si>
-  <si>
-    <t>On Quan An</t>
-  </si>
-  <si>
-    <t>Bui Huynh Hao Thien</t>
-  </si>
-  <si>
-    <t>Tra Anh Toan</t>
-  </si>
-  <si>
-    <t>Tran Phuc Nguyen</t>
-  </si>
-  <si>
-    <t>Phan Thanh Hau</t>
-  </si>
-  <si>
-    <t>Trinh Van Hoang</t>
-  </si>
-  <si>
-    <t>Nguyen Gia Bao</t>
-  </si>
-  <si>
-    <t>Nguyen Doan Thien Thuong</t>
-  </si>
-  <si>
-    <t>Bui Xuan Truong</t>
-  </si>
-  <si>
-    <t>Vu Dinh Cao</t>
-  </si>
-  <si>
-    <t>Dang Huynh Song Thao</t>
-  </si>
-  <si>
-    <t>Thong A Thao</t>
-  </si>
-  <si>
-    <t>Nguyen Ngoc Lam</t>
-  </si>
-  <si>
-    <t>Dang Thai Hien</t>
-  </si>
-  <si>
-    <t>Do Thi Bich Tram</t>
-  </si>
-  <si>
-    <t>Vo Kim Thach</t>
-  </si>
-  <si>
-    <t>Dang Hoang Trong</t>
-  </si>
-  <si>
-    <t>Nguyen Thanh Hoai</t>
-  </si>
-  <si>
-    <t>Bui Ngoc Bao Tram</t>
-  </si>
-  <si>
-    <t>Dang Vinh Truong</t>
-  </si>
-  <si>
-    <t>Phan Ly Nhung</t>
-  </si>
-  <si>
-    <t>Nguyen Quang Thang</t>
-  </si>
-  <si>
-    <t>Nguyen Viet Bac</t>
-  </si>
-  <si>
-    <t>Nguyen Phan Thien Long</t>
-  </si>
-  <si>
-    <t>Le Minh Tuan</t>
-  </si>
-  <si>
-    <t>Nguyen Gia Huy</t>
-  </si>
-  <si>
-    <t>Vo Binh An</t>
-  </si>
-  <si>
-    <t>Nguyen Van Thinh</t>
-  </si>
-  <si>
-    <t>Pham Xuan Quang</t>
-  </si>
-  <si>
-    <t>Duong Nam</t>
-  </si>
-  <si>
-    <t>Dinh Anh Trung</t>
-  </si>
-  <si>
-    <t>Dang Van Anh Nguyen</t>
-  </si>
-  <si>
-    <t>Vo Thi Kim Ngan</t>
-  </si>
-  <si>
-    <t>Nguyen The Anh</t>
-  </si>
-  <si>
-    <t>Lam Chi Hien</t>
-  </si>
-  <si>
-    <t>Nguyen Van Hop</t>
-  </si>
-  <si>
-    <t>Nguyen Quang Chien</t>
-  </si>
-  <si>
-    <t>Mai Duong Quyen</t>
-  </si>
-  <si>
-    <t>Nguyen Duy Dang</t>
-  </si>
-  <si>
-    <t>Do Dieu Trinh</t>
-  </si>
-  <si>
-    <t>Tran Gia Huan</t>
-  </si>
-  <si>
-    <t>Hoang Quoc Vu</t>
-  </si>
-  <si>
-    <t>Dang Ngan Nhat Phuong</t>
-  </si>
-  <si>
-    <t>Mai Hong Thuc</t>
-  </si>
-  <si>
-    <t>Dang Nguyen Nguyen Vu</t>
-  </si>
-  <si>
-    <t>Phan Le Thanh Tung</t>
-  </si>
-  <si>
-    <t>Nguyen Thanh Tung</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Thu Huong</t>
-  </si>
-  <si>
-    <t>Truong Ngoc Nhat</t>
-  </si>
-  <si>
-    <t>Quach Thi My Linh</t>
-  </si>
-  <si>
-    <t>Tran Huynh Toi</t>
-  </si>
-  <si>
-    <t>Hoang Nguyen Hoai Nam</t>
-  </si>
-  <si>
-    <t>Kieu Van Tien</t>
-  </si>
-  <si>
-    <t>Trinh Thi Minh</t>
-  </si>
-  <si>
-    <t>Truong Minh Dong</t>
-  </si>
-  <si>
-    <t>Vo Tuan Kiet</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Huyen Trang</t>
-  </si>
-  <si>
-    <t>Dang Minh Thien</t>
-  </si>
-  <si>
-    <t>Tran Dang Xuan</t>
-  </si>
-  <si>
-    <t>Phan Tan Thai Duong</t>
-  </si>
-  <si>
-    <t>Huynh Hieu Nghia</t>
-  </si>
-  <si>
-    <t>Pham Ba Phuc</t>
-  </si>
-  <si>
-    <t>Nguyen Nhat Linh</t>
-  </si>
-  <si>
-    <t>Nguyen Minh Quang</t>
-  </si>
-  <si>
-    <t>Tu Vuong Bao Ngoc</t>
-  </si>
-  <si>
-    <t>Vu Xuan Thang</t>
-  </si>
-  <si>
-    <t>Mai Thanh Man</t>
-  </si>
-  <si>
-    <t>Phan Dinh Khang</t>
-  </si>
-  <si>
-    <t>Tran Xuan Binh</t>
-  </si>
-  <si>
-    <t>Vo Quang Nhan</t>
-  </si>
-  <si>
-    <t>Huynh Dai Nghia</t>
-  </si>
-  <si>
-    <t>Huynh Van Hau</t>
-  </si>
-  <si>
-    <t>Tran Minh Thien</t>
-  </si>
-  <si>
-    <t>Le Khac Hoan Vu</t>
-  </si>
-  <si>
-    <t>Dang Minh Nhat</t>
-  </si>
-  <si>
-    <t>Thai Pham Van Hiep</t>
-  </si>
-  <si>
-    <t>Truong Hoang Linh</t>
-  </si>
-  <si>
-    <t>Thai Tan Xuyen</t>
-  </si>
-  <si>
-    <t>Nguyen Minh Cam</t>
-  </si>
-  <si>
-    <t>Pham Thanh Hai</t>
-  </si>
-  <si>
-    <t>Do Duy Tan</t>
-  </si>
-  <si>
-    <t>Do Quang Vinh</t>
-  </si>
-  <si>
-    <t>Nguyen Tuan Khanh</t>
-  </si>
-  <si>
-    <t>Dang Tran Tuan</t>
-  </si>
-  <si>
-    <t>Tran Quang Thai</t>
-  </si>
-  <si>
     <t>Column Labels</t>
   </si>
   <si>
@@ -615,13 +319,319 @@
   </si>
   <si>
     <t>023570</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Bảo</t>
+  </si>
+  <si>
+    <t>Quách Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Trần Đăng Xuân</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Linh</t>
+  </si>
+  <si>
+    <t>Trương Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Phan Văn Hậu</t>
+  </si>
+  <si>
+    <t>Trương Quang Trường</t>
+  </si>
+  <si>
+    <t>Hoàng Nguyễn Hoài Nam</t>
+  </si>
+  <si>
+    <t>Phan Tấn Thái Dương</t>
+  </si>
+  <si>
+    <t>Phạm Bá Phúc</t>
+  </si>
+  <si>
+    <t>Trương Anh Hào</t>
+  </si>
+  <si>
+    <t>Đặng Minh Thiện</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Quang</t>
+  </si>
+  <si>
+    <t>Mai Thanh Mẫn</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Tú</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Xuân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Vũ Xuân Thắng</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Minh</t>
+  </si>
+  <si>
+    <t>Hoàng Hữu Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Trọng</t>
+  </si>
+  <si>
+    <t>Hoàng Gia Vương</t>
+  </si>
+  <si>
+    <t>Kiều Văn Tiến</t>
+  </si>
+  <si>
+    <t>Trương Minh Đông</t>
+  </si>
+  <si>
+    <t>Thái Hoàng Đăng</t>
+  </si>
+  <si>
+    <t>Võ Tuấn Kiệt</t>
+  </si>
+  <si>
+    <t>Trần Doãn Tùng</t>
+  </si>
+  <si>
+    <t>Phan Thanh Hậu</t>
+  </si>
+  <si>
+    <t>Nguyễn Đoàn Thiên Thương</t>
+  </si>
+  <si>
+    <t>Thống A Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hoài</t>
+  </si>
+  <si>
+    <t>Đặng Vĩnh Trường</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Bắc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Anh</t>
+  </si>
+  <si>
+    <t>Trần Huỳnh Tới</t>
+  </si>
+  <si>
+    <t>Bùi Xuân Trường</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>Trần Xuân Bình</t>
+  </si>
+  <si>
+    <t>Huỳnh Đại Nghĩa</t>
+  </si>
+  <si>
+    <t>Huỳnh Phạm Nhất Triều</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Lâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Trương Ngọc Nhất</t>
+  </si>
+  <si>
+    <t>Huỳnh Hiếu Nghĩa</t>
+  </si>
+  <si>
+    <t>Võ Quang Nhân</t>
+  </si>
+  <si>
+    <t>Ôn Quân An</t>
+  </si>
+  <si>
+    <t>Trà Anh Toàn</t>
+  </si>
+  <si>
+    <t>Trần Phúc Nguyên</t>
+  </si>
+  <si>
+    <t>Phan Đình Khang</t>
+  </si>
+  <si>
+    <t>Bùi Huỳnh Hạo Thiên</t>
+  </si>
+  <si>
+    <t>Trịnh Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Đặng Huỳnh Song Thảo</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Bích Trâm</t>
+  </si>
+  <si>
+    <t>Phan Lý Nhung</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Kha</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Bảo</t>
+  </si>
+  <si>
+    <t>Bùi Ngọc Bảo Trâm</t>
+  </si>
+  <si>
+    <t>Dương Nam</t>
+  </si>
+  <si>
+    <t>Lâm Chí Hiền</t>
+  </si>
+  <si>
+    <t>Từ Vương Bảo Ngọc</t>
+  </si>
+  <si>
+    <t>Lê Khắc Hoàn Vũ</t>
+  </si>
+  <si>
+    <t>Lê Việt Hoàng</t>
+  </si>
+  <si>
+    <t>Vũ Đình Cao</t>
+  </si>
+  <si>
+    <t>Đặng Hoàng Trọng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thịnh</t>
+  </si>
+  <si>
+    <t>Phạm Xuân Quang</t>
+  </si>
+  <si>
+    <t>Đinh Anh Trung</t>
+  </si>
+  <si>
+    <t>Đặng Văn Anh Nguyên</t>
+  </si>
+  <si>
+    <t>Đỗ Diệu Trinh</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Hậu</t>
+  </si>
+  <si>
+    <t>Trần Minh Thiện</t>
+  </si>
+  <si>
+    <t>Đặng Thái Hiên</t>
+  </si>
+  <si>
+    <t>Võ Kim Thạch</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Thiện Long</t>
+  </si>
+  <si>
+    <t>Lê Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Huy</t>
+  </si>
+  <si>
+    <t>Võ Bình An</t>
+  </si>
+  <si>
+    <t>Võ Thị Kim Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hợp</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Chiến</t>
+  </si>
+  <si>
+    <t>Mai Dương Quyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Đăng</t>
+  </si>
+  <si>
+    <t>Phan Lê Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Khanh</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Hải</t>
+  </si>
+  <si>
+    <t>Thái Tân Xuyên</t>
+  </si>
+  <si>
+    <t>Đặng Trần Tuấn</t>
+  </si>
+  <si>
+    <t>Đặng Ngàn Nhất Phương</t>
+  </si>
+  <si>
+    <t>Mai Hồng Thức</t>
+  </si>
+  <si>
+    <t>Trần Quang Thái</t>
+  </si>
+  <si>
+    <t>Đặng Nguyễn Nguyên Vũ</t>
+  </si>
+  <si>
+    <t>Đỗ Quang Vinh</t>
+  </si>
+  <si>
+    <t>Hoàng Quốc Vũ</t>
+  </si>
+  <si>
+    <t>Trần Gia Huấn</t>
+  </si>
+  <si>
+    <t>Thái Phạm Văn Hiệp</t>
+  </si>
+  <si>
+    <t>Trương Hoàng Lĩnh</t>
+  </si>
+  <si>
+    <t>Đỗ Duy Tân</t>
+  </si>
+  <si>
+    <t>Đặng Minh Nhật</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Cầm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +644,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,6 +700,21 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -702,21 +733,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,7 +761,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data.xlsx]Sheet2!PivotTable4</c:name>
+    <c:name>[data_2.xlsx]Sheet2!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -894,6 +910,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -910,6 +967,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -926,6 +1024,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -942,6 +1081,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -958,6 +1138,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -3723,7 +3944,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F07F6369-4D87-474E-9FE8-78369F5B59AB}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F07F6369-4D87-474E-9FE8-78369F5B59AB}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4042,17 +4263,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94B01B55-908F-407E-A0F5-1EADA3A17688}" name="Table13" displayName="Table13" ref="A1:F103" totalsRowShown="0">
   <autoFilter ref="A1:F103" xr:uid="{28E80E7D-EF45-41A0-A381-C2279AEF5075}"/>
-  <sortState ref="A2:F103">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F103">
     <sortCondition ref="E2:E103"/>
     <sortCondition ref="C2:C103"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{D2B7E7FC-8898-43B6-9761-E81C5904222F}" name="uid" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D2B7E7FC-8898-43B6-9761-E81C5904222F}" name="uid" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{5B8EB6B7-393C-4355-8711-8219B5CC46C9}" name="name"/>
-    <tableColumn id="11" xr3:uid="{CB2F8C7B-2C0A-4774-9E28-E17766758A74}" name="team" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1A828B29-F081-4BAD-9A4D-3439B11C94E3}" name="subteam" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{8B0D9FC7-1905-421E-8188-320606DF2A9E}" name="priority" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{44634F0A-1E47-4253-9970-A8B1815E6914}" name="active" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{CB2F8C7B-2C0A-4774-9E28-E17766758A74}" name="team" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1A828B29-F081-4BAD-9A4D-3439B11C94E3}" name="subteam" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{8B0D9FC7-1905-421E-8188-320606DF2A9E}" name="priority" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{44634F0A-1E47-4253-9970-A8B1815E6914}" name="active" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4381,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4714BE-5015-4D45-92D9-EFF28A4D2C9F}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4419,7 +4640,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4437,7 +4658,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4455,7 +4676,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4473,7 +4694,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4491,7 +4712,7 @@
         <v>197739</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4509,7 +4730,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -4527,7 +4748,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -4545,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -4563,7 +4784,7 @@
         <v>186265</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -4581,7 +4802,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -4599,7 +4820,7 @@
         <v>197557</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -4617,7 +4838,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -4635,7 +4856,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -4653,7 +4874,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -4671,7 +4892,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -4689,7 +4910,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -4707,7 +4928,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -4725,7 +4946,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -4743,7 +4964,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -4761,7 +4982,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
@@ -4779,7 +5000,7 @@
         <v>197510</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -4797,7 +5018,7 @@
         <v>197734</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1">
         <v>7</v>
@@ -4815,7 +5036,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1">
         <v>7</v>
@@ -4833,7 +5054,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
@@ -4851,7 +5072,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
         <v>7</v>
@@ -4869,7 +5090,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -4887,7 +5108,7 @@
         <v>186824</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1">
         <v>8</v>
@@ -4905,7 +5126,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -4923,7 +5144,7 @@
         <v>220175</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -4941,7 +5162,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -4959,7 +5180,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -4977,7 +5198,7 @@
         <v>220980</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -4995,7 +5216,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -5031,7 +5252,7 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5049,7 +5270,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5067,7 +5288,7 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -5085,7 +5306,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -5103,7 +5324,7 @@
         <v>208158</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -5121,7 +5342,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -5139,7 +5360,7 @@
         <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -5157,7 +5378,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -5175,14 +5396,14 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -5193,7 +5414,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -5211,7 +5432,7 @@
         <v>197299</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -5229,7 +5450,7 @@
         <v>208351</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
@@ -5247,7 +5468,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -5265,7 +5486,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -5283,7 +5504,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -5301,7 +5522,7 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -5319,7 +5540,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -5337,7 +5558,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -5355,7 +5576,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -5373,7 +5594,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -5391,7 +5612,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -5409,7 +5630,7 @@
         <v>186745</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -5427,7 +5648,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1">
         <v>6</v>
@@ -5445,7 +5666,7 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
@@ -5463,7 +5684,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -5481,7 +5702,7 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -5499,7 +5720,7 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -5517,7 +5738,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -5535,7 +5756,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -5553,7 +5774,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
@@ -5571,7 +5792,7 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
@@ -5589,7 +5810,7 @@
         <v>220986</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1">
         <v>7</v>
@@ -5607,7 +5828,7 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -5625,7 +5846,7 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -5643,7 +5864,7 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C70" s="1">
         <v>7</v>
@@ -5658,10 +5879,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C71" s="1">
         <v>7</v>
@@ -5679,7 +5900,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -5697,7 +5918,7 @@
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C73" s="1">
         <v>7</v>
@@ -5715,7 +5936,7 @@
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1">
         <v>7</v>
@@ -5733,7 +5954,7 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C75" s="1">
         <v>8</v>
@@ -5751,7 +5972,7 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1">
         <v>8</v>
@@ -5769,7 +5990,7 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1">
         <v>8</v>
@@ -5787,7 +6008,7 @@
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C78" s="1">
         <v>8</v>
@@ -5805,7 +6026,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C79" s="1">
         <v>8</v>
@@ -5823,7 +6044,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
@@ -5841,7 +6062,7 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="C81" s="1">
         <v>8</v>
@@ -5859,7 +6080,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C82" s="1">
         <v>8</v>
@@ -5877,7 +6098,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="C83" s="1">
         <v>8</v>
@@ -5895,7 +6116,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C84" s="1">
         <v>8</v>
@@ -5913,7 +6134,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C85" s="1">
         <v>8</v>
@@ -5931,7 +6152,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C86" s="1">
         <v>8</v>
@@ -5949,7 +6170,7 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -5969,7 +6190,7 @@
         <v>231801</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -5989,7 +6210,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -6029,7 +6250,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C91" s="1">
         <v>3</v>
@@ -6049,7 +6270,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C92" s="1">
         <v>4</v>
@@ -6069,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="C93" s="1">
         <v>5</v>
@@ -6089,7 +6310,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C94" s="1">
         <v>5</v>
@@ -6109,7 +6330,7 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
@@ -6129,7 +6350,7 @@
         <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C96" s="1">
         <v>7</v>
@@ -6149,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -6169,7 +6390,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -6189,7 +6410,7 @@
         <v>980013</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -6209,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -6229,7 +6450,7 @@
         <v>221296</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -6249,7 +6470,7 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C102" s="1">
         <v>3</v>
@@ -6269,7 +6490,7 @@
         <v>186559</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C103" s="1">
         <v>8</v>
@@ -6285,11 +6506,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A104:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A103">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6413,15 +6635,15 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6439,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6874,7 +7096,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3">
         <v>27</v>

--- a/tools/data.xlsx
+++ b/tools/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Playground\luckydraw\luckydraw\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayGround\Python\lucky_slot_separator\luckydraw\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307D5AA-4801-4358-A168-695E31912AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74110668-936A-4B25-94A8-FF55AD8B76CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="615" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="615" windowWidth="20730" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -20,21 +20,11 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
   <si>
     <t>active</t>
   </si>
@@ -321,310 +311,7 @@
     <t>023570</t>
   </si>
   <si>
-    <t>Nguyễn Văn Dương</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Bảo</t>
-  </si>
-  <si>
-    <t>Quách Thị Mỹ Linh</t>
-  </si>
-  <si>
-    <t>Trần Đăng Xuân</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Linh</t>
-  </si>
-  <si>
-    <t>Trương Minh Hoàng</t>
-  </si>
-  <si>
-    <t>Phan Văn Hậu</t>
-  </si>
-  <si>
-    <t>Trương Quang Trường</t>
-  </si>
-  <si>
-    <t>Hoàng Nguyễn Hoài Nam</t>
-  </si>
-  <si>
-    <t>Phan Tấn Thái Dương</t>
-  </si>
-  <si>
-    <t>Phạm Bá Phúc</t>
-  </si>
-  <si>
-    <t>Trương Anh Hào</t>
-  </si>
-  <si>
-    <t>Đặng Minh Thiện</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Quang</t>
-  </si>
-  <si>
-    <t>Mai Thanh Mẫn</t>
-  </si>
-  <si>
-    <t>Phạm Thanh Tú</t>
-  </si>
-  <si>
-    <t>Lê Thị Ngọc Xuân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Huyền Trang</t>
-  </si>
-  <si>
-    <t>Vũ Xuân Thắng</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Minh</t>
-  </si>
-  <si>
-    <t>Hoàng Hữu Đạt</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Trọng</t>
-  </si>
-  <si>
-    <t>Hoàng Gia Vương</t>
-  </si>
-  <si>
-    <t>Kiều Văn Tiến</t>
-  </si>
-  <si>
-    <t>Trương Minh Đông</t>
-  </si>
-  <si>
-    <t>Thái Hoàng Đăng</t>
-  </si>
-  <si>
-    <t>Võ Tuấn Kiệt</t>
-  </si>
-  <si>
-    <t>Trần Doãn Tùng</t>
-  </si>
-  <si>
-    <t>Phan Thanh Hậu</t>
-  </si>
-  <si>
-    <t>Nguyễn Đoàn Thiên Thương</t>
-  </si>
-  <si>
-    <t>Thống A Thảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hoài</t>
-  </si>
-  <si>
-    <t>Đặng Vĩnh Trường</t>
-  </si>
-  <si>
-    <t>Nguyễn Việt Bắc</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Anh</t>
-  </si>
-  <si>
-    <t>Trần Huỳnh Tới</t>
-  </si>
-  <si>
-    <t>Bùi Xuân Trường</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thu Hương</t>
-  </si>
-  <si>
-    <t>Trần Xuân Bình</t>
-  </si>
-  <si>
-    <t>Huỳnh Đại Nghĩa</t>
-  </si>
-  <si>
-    <t>Huỳnh Phạm Nhất Triều</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Lâm</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Trương Ngọc Nhất</t>
-  </si>
-  <si>
-    <t>Huỳnh Hiếu Nghĩa</t>
-  </si>
-  <si>
-    <t>Võ Quang Nhân</t>
-  </si>
-  <si>
-    <t>Ôn Quân An</t>
-  </si>
-  <si>
-    <t>Trà Anh Toàn</t>
-  </si>
-  <si>
-    <t>Trần Phúc Nguyên</t>
-  </si>
-  <si>
-    <t>Phan Đình Khang</t>
-  </si>
-  <si>
-    <t>Bùi Huỳnh Hạo Thiên</t>
-  </si>
-  <si>
-    <t>Trịnh Văn Hoàng</t>
-  </si>
-  <si>
-    <t>Đặng Huỳnh Song Thảo</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Bích Trâm</t>
-  </si>
-  <si>
-    <t>Phan Lý Nhung</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Minh</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Kha</t>
-  </si>
-  <si>
-    <t>Nguyễn Gia Bảo</t>
-  </si>
-  <si>
-    <t>Bùi Ngọc Bảo Trâm</t>
-  </si>
-  <si>
-    <t>Dương Nam</t>
-  </si>
-  <si>
-    <t>Lâm Chí Hiền</t>
-  </si>
-  <si>
-    <t>Từ Vương Bảo Ngọc</t>
-  </si>
-  <si>
-    <t>Lê Khắc Hoàn Vũ</t>
-  </si>
-  <si>
-    <t>Lê Việt Hoàng</t>
-  </si>
-  <si>
-    <t>Vũ Đình Cao</t>
-  </si>
-  <si>
-    <t>Đặng Hoàng Trọng</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thịnh</t>
-  </si>
-  <si>
-    <t>Phạm Xuân Quang</t>
-  </si>
-  <si>
-    <t>Đinh Anh Trung</t>
-  </si>
-  <si>
-    <t>Đặng Văn Anh Nguyên</t>
-  </si>
-  <si>
-    <t>Đỗ Diệu Trinh</t>
-  </si>
-  <si>
-    <t>Huỳnh Văn Hậu</t>
-  </si>
-  <si>
-    <t>Trần Minh Thiện</t>
-  </si>
-  <si>
-    <t>Đặng Thái Hiên</t>
-  </si>
-  <si>
-    <t>Võ Kim Thạch</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Thắng</t>
-  </si>
-  <si>
-    <t>Nguyễn Phan Thiện Long</t>
-  </si>
-  <si>
-    <t>Lê Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Nguyễn Gia Huy</t>
-  </si>
-  <si>
-    <t>Võ Bình An</t>
-  </si>
-  <si>
-    <t>Võ Thị Kim Ngân</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Hợp</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Chiến</t>
-  </si>
-  <si>
-    <t>Mai Dương Quyền</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Đăng</t>
-  </si>
-  <si>
-    <t>Phan Lê Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Khanh</t>
-  </si>
-  <si>
-    <t>Phạm Thanh Hải</t>
-  </si>
-  <si>
-    <t>Thái Tân Xuyên</t>
-  </si>
-  <si>
-    <t>Đặng Trần Tuấn</t>
-  </si>
-  <si>
-    <t>Đặng Ngàn Nhất Phương</t>
-  </si>
-  <si>
-    <t>Mai Hồng Thức</t>
-  </si>
-  <si>
-    <t>Trần Quang Thái</t>
-  </si>
-  <si>
-    <t>Đặng Nguyễn Nguyên Vũ</t>
-  </si>
-  <si>
-    <t>Đỗ Quang Vinh</t>
-  </si>
-  <si>
-    <t>Hoàng Quốc Vũ</t>
-  </si>
-  <si>
-    <t>Trần Gia Huấn</t>
-  </si>
-  <si>
-    <t>Thái Phạm Văn Hiệp</t>
-  </si>
-  <si>
-    <t>Trương Hoàng Lĩnh</t>
-  </si>
-  <si>
-    <t>Đỗ Duy Tân</t>
-  </si>
-  <si>
-    <t>Đặng Minh Nhật</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Cầm</t>
+    <t>Nguyễn Văn A</t>
   </si>
 </sst>
 </file>
@@ -761,7 +448,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[data_2.xlsx]Sheet2!PivotTable4</c:name>
+    <c:name>[data.xlsx]Sheet2!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -910,47 +597,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -967,47 +613,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -1024,47 +629,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -1081,47 +645,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -1138,47 +661,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -4263,7 +3745,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94B01B55-908F-407E-A0F5-1EADA3A17688}" name="Table13" displayName="Table13" ref="A1:F103" totalsRowShown="0">
   <autoFilter ref="A1:F103" xr:uid="{28E80E7D-EF45-41A0-A381-C2279AEF5075}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F103">
+  <sortState ref="A2:F103">
     <sortCondition ref="E2:E103"/>
     <sortCondition ref="C2:C103"/>
   </sortState>
@@ -4602,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4714BE-5015-4D45-92D9-EFF28A4D2C9F}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,7 +4140,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4676,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4694,7 +4176,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -4712,7 +4194,7 @@
         <v>197739</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4730,7 +4212,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -4748,7 +4230,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -4766,7 +4248,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -4784,7 +4266,7 @@
         <v>186265</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -4802,7 +4284,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -4820,7 +4302,7 @@
         <v>197557</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -4838,7 +4320,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -4856,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -4874,7 +4356,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -4892,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -4910,7 +4392,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -4928,7 +4410,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -4946,7 +4428,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -4964,7 +4446,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -4982,7 +4464,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
@@ -5000,7 +4482,7 @@
         <v>197510</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -5018,7 +4500,7 @@
         <v>197734</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1">
         <v>7</v>
@@ -5036,7 +4518,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1">
         <v>7</v>
@@ -5054,7 +4536,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>7</v>
@@ -5072,7 +4554,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1">
         <v>7</v>
@@ -5090,7 +4572,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>8</v>
@@ -5108,7 +4590,7 @@
         <v>186824</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>8</v>
@@ -5126,7 +4608,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -5144,7 +4626,7 @@
         <v>220175</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -5162,7 +4644,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -5180,7 +4662,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5198,7 +4680,7 @@
         <v>220980</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -5216,7 +4698,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -5234,7 +4716,7 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -5252,7 +4734,7 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5270,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -5288,7 +4770,7 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -5306,7 +4788,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -5324,7 +4806,7 @@
         <v>208158</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -5342,7 +4824,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -5360,7 +4842,7 @@
         <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -5378,7 +4860,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -5396,7 +4878,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -5414,7 +4896,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -5432,7 +4914,7 @@
         <v>197299</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -5450,7 +4932,7 @@
         <v>208351</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
@@ -5468,7 +4950,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -5486,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -5504,7 +4986,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -5522,7 +5004,7 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -5540,7 +5022,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -5558,7 +5040,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -5576,7 +5058,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -5594,7 +5076,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -5612,7 +5094,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -5630,7 +5112,7 @@
         <v>186745</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -5648,7 +5130,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1">
         <v>6</v>
@@ -5666,7 +5148,7 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
@@ -5684,7 +5166,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -5702,7 +5184,7 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -5720,7 +5202,7 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -5738,7 +5220,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -5756,7 +5238,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -5774,7 +5256,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
@@ -5792,7 +5274,7 @@
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
@@ -5810,7 +5292,7 @@
         <v>220986</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="C67" s="1">
         <v>7</v>
@@ -5828,7 +5310,7 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -5846,7 +5328,7 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -5864,7 +5346,7 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C70" s="1">
         <v>7</v>
@@ -5882,7 +5364,7 @@
         <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="C71" s="1">
         <v>7</v>
@@ -5900,7 +5382,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -5918,7 +5400,7 @@
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C73" s="1">
         <v>7</v>
@@ -5936,7 +5418,7 @@
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C74" s="1">
         <v>7</v>
@@ -5954,7 +5436,7 @@
         <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1">
         <v>8</v>
@@ -5972,7 +5454,7 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1">
         <v>8</v>
@@ -5990,7 +5472,7 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C77" s="1">
         <v>8</v>
@@ -6008,7 +5490,7 @@
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1">
         <v>8</v>
@@ -6026,7 +5508,7 @@
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C79" s="1">
         <v>8</v>
@@ -6044,7 +5526,7 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
@@ -6062,7 +5544,7 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="C81" s="1">
         <v>8</v>
@@ -6080,7 +5562,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>8</v>
@@ -6098,7 +5580,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="C83" s="1">
         <v>8</v>
@@ -6116,7 +5598,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="C84" s="1">
         <v>8</v>
@@ -6134,7 +5616,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="C85" s="1">
         <v>8</v>
@@ -6152,7 +5634,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1">
         <v>8</v>
@@ -6170,7 +5652,7 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -6190,7 +5672,7 @@
         <v>231801</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -6210,7 +5692,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -6230,7 +5712,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1">
         <v>3</v>
@@ -6250,7 +5732,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="C91" s="1">
         <v>3</v>
@@ -6270,7 +5752,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
         <v>4</v>
@@ -6290,7 +5772,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1">
         <v>5</v>
@@ -6310,7 +5792,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1">
         <v>5</v>
@@ -6330,7 +5812,7 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
@@ -6350,7 +5832,7 @@
         <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C96" s="1">
         <v>7</v>
@@ -6370,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -6390,7 +5872,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -6410,7 +5892,7 @@
         <v>980013</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -6430,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -6450,7 +5932,7 @@
         <v>221296</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -6470,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C102" s="1">
         <v>3</v>
@@ -6490,7 +5972,7 @@
         <v>186559</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="C103" s="1">
         <v>8</v>
